--- a/Format.xlsx
+++ b/Format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satbir.malli\Desktop\BOT-for-form-filling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FFB554-C095-42DE-95B0-C986AF7EE82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7166901D-3892-4485-B4DC-B474A22A6EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5CBB7D2A-935D-49F7-8B6A-494D5E419EC7}"/>
   </bookViews>
@@ -591,7 +591,7 @@
   <dimension ref="A1:AL1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
